--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -19,13 +19,13 @@
     <t>Team</t>
   </si>
   <si>
-    <t>Conference</t>
+    <t>Conf.</t>
+  </si>
+  <si>
+    <t>Record</t>
   </si>
   <si>
     <t>NET</t>
-  </si>
-  <si>
-    <t>Record</t>
   </si>
   <si>
     <t>NET SoS</t>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Team</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>Quad4</t>
+  </si>
+  <si>
+    <t>Bellarmine</t>
+  </si>
+  <si>
+    <t>Atlantic Sun</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Big 12</t>
+  </si>
+  <si>
+    <t>7-11</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,6 +455,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Team</t>
   </si>
@@ -56,24 +56,6 @@
   </si>
   <si>
     <t>Quad4</t>
-  </si>
-  <si>
-    <t>Bellarmine</t>
-  </si>
-  <si>
-    <t>Atlantic Sun</t>
-  </si>
-  <si>
-    <t>11-5</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Big 12</t>
-  </si>
-  <si>
-    <t>7-11</t>
   </si>
 </sst>
 </file>
@@ -405,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,28 +437,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Team</t>
   </si>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>Quad4</t>
+  </si>
+  <si>
+    <t>Bellarmine</t>
+  </si>
+  <si>
+    <t>Atlantic Sun</t>
+  </si>
+  <si>
+    <t>16-13</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>Big 12</t>
+  </si>
+  <si>
+    <t>20-12</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
 </sst>
 </file>
@@ -387,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,6 +461,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Team</t>
   </si>
@@ -28,9 +28,6 @@
     <t>NET</t>
   </si>
   <si>
-    <t>NET SoS</t>
-  </si>
-  <si>
     <t>KevPauga</t>
   </si>
   <si>
@@ -70,6 +67,33 @@
     <t>194</t>
   </si>
   <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
     <t>Iowa State</t>
   </si>
   <si>
@@ -80,6 +104,30 @@
   </si>
   <si>
     <t>47</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>8-0</t>
   </si>
 </sst>
 </file>
@@ -411,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,36 +505,87 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Team</t>
   </si>
@@ -67,19 +67,16 @@
     <t>194</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>192</t>
+    <t>167</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t>0-5</t>
@@ -106,7 +103,7 @@
     <t>47</t>
   </si>
   <si>
-    <t>45</t>
+    <t>46</t>
   </si>
   <si>
     <t>30</t>
@@ -115,10 +112,7 @@
     <t>52</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>60</t>
+    <t>61</t>
   </si>
   <si>
     <t>9-8</t>
@@ -134,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +136,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,8 +182,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,126 +487,126 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="425">
   <si>
     <t>Team</t>
   </si>
@@ -55,73 +55,1240 @@
     <t>Quad4</t>
   </si>
   <si>
-    <t>Bellarmine</t>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>West Coast</t>
+  </si>
+  <si>
+    <t>26-3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>13-0</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Pac-12</t>
+  </si>
+  <si>
+    <t>30-3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>9-0</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Big 12</t>
+  </si>
+  <si>
+    <t>26-6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>27-6</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>27-5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>28-5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Big East</t>
+  </si>
+  <si>
+    <t>25-7</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Big Ten</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>24-7</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>25-8</t>
+  </si>
+  <si>
+    <t>8-8</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>25-6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>22-9</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>25-5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>American Athletic</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>23-9</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>Saint Mary's College</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>25-9</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>21-11</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>22-11</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>19-13</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Mountain West</t>
+  </si>
+  <si>
+    <t>24-5</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>26-7</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>19-11</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Ohio Valley</t>
+  </si>
+  <si>
+    <t>27-2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>17-0</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
+    <t>20-10</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>23-7</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>20-12</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>24-9</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>19-12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>22-10</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>20-9</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>Loyola-Chicago</t>
+  </si>
+  <si>
+    <t>Missouri Valley</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Atlantic 10</t>
+  </si>
+  <si>
+    <t>26-5</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>23-10</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>17-14</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>24-8</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>20-13</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>21-10</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>18-13</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>22-12</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>18-15</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>21-9</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>Conference USA</t>
+  </si>
+  <si>
+    <t>22-6</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>17-15</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>19-14</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>The Summit League</t>
+  </si>
+  <si>
+    <t>28-4</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>America East</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>19-1</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>Western Athletic</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Mid-American</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Ivy League</t>
+  </si>
+  <si>
+    <t>21-5</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>Montana State</t>
+  </si>
+  <si>
+    <t>Big Sky</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>19-2</t>
+  </si>
+  <si>
+    <t>Longwood</t>
+  </si>
+  <si>
+    <t>Big South</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>18-2</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Patriot League</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>20-3</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Colonial Athletic</t>
+  </si>
+  <si>
+    <t>21-12</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>Saint Peter's</t>
+  </si>
+  <si>
+    <t>MAAC</t>
+  </si>
+  <si>
+    <t>17-11</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>Long Beach State</t>
+  </si>
+  <si>
+    <t>Big West</t>
+  </si>
+  <si>
+    <t>18-11</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
   </si>
   <si>
     <t>Atlantic Sun</t>
   </si>
   <si>
-    <t>16-13</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>176</t>
+    <t>19-10</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>15-5</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Sun Belt</t>
+  </si>
+  <si>
+    <t>15-10</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Norfolk State</t>
+  </si>
+  <si>
+    <t>MEAC</t>
+  </si>
+  <si>
+    <t>21-6</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>19-3</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>18-3</t>
+  </si>
+  <si>
+    <t>Wright State</t>
+  </si>
+  <si>
+    <t>Horizon League</t>
+  </si>
+  <si>
+    <t>182</t>
   </si>
   <si>
     <t>199</t>
   </si>
   <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>14-3</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>Big 12</t>
-  </si>
-  <si>
-    <t>20-12</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>9-8</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>8-0</t>
+    <t>161</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>15-7</t>
+  </si>
+  <si>
+    <t>Alcorn State</t>
+  </si>
+  <si>
+    <t>SWAC</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>16-4</t>
+  </si>
+  <si>
+    <t>Southeastern Louisiana</t>
+  </si>
+  <si>
+    <t>Southland</t>
+  </si>
+  <si>
+    <t>15-13</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>12-6</t>
   </si>
 </sst>
 </file>
@@ -480,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,66 +1714,3264 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>35</v>
+      <c r="C22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="461">
   <si>
     <t>Team</t>
   </si>
@@ -133,294 +133,309 @@
     <t>Kansas</t>
   </si>
   <si>
+    <t>28-6</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12-5</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>26-7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>27-5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>28-5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Big East</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Big Ten</t>
+  </si>
+  <si>
     <t>27-6</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11-5</t>
-  </si>
-  <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>SEC</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9-6</t>
-  </si>
-  <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>8-0</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>27-5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>28-5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
-    <t>Big East</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
   <si>
     <t>25-7</t>
   </si>
   <si>
-    <t>7-6</t>
+    <t>10-7</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>25-9</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>24-7</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>25-6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>22-9</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>25-8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>25-5</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>American Athletic</t>
+  </si>
+  <si>
+    <t>1-4</t>
   </si>
   <si>
     <t>9-1</t>
   </si>
   <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Big Ten</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>24-7</t>
-  </si>
-  <si>
-    <t>9-7</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>25-8</t>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>23-9</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>Saint Mary's College</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>21-11</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>22-11</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>19-13</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>8-8</t>
   </si>
   <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>25-6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>22-9</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>Providence</t>
-  </si>
-  <si>
-    <t>25-5</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>American Athletic</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>10-0</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>23-9</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>Saint Mary's College</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>25-9</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>21-11</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>22-11</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>19-13</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Colorado State</t>
   </si>
   <si>
@@ -448,9 +463,6 @@
     <t>USC</t>
   </si>
   <si>
-    <t>26-7</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -478,105 +490,111 @@
     <t>Michigan State</t>
   </si>
   <si>
+    <t>22-12</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Ohio Valley</t>
+  </si>
+  <si>
+    <t>27-2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>17-0</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
+    <t>20-10</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>23-8</t>
+  </si>
+  <si>
     <t>5-8</t>
   </si>
   <si>
-    <t>Murray State</t>
-  </si>
-  <si>
-    <t>Ohio Valley</t>
-  </si>
-  <si>
-    <t>27-2</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>17-0</t>
-  </si>
-  <si>
-    <t>Boise State</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>Seton Hall</t>
-  </si>
-  <si>
-    <t>20-10</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
-    <t>23-7</t>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>20-12</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>24-9</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>19-12</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>5-7</t>
   </si>
   <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>20-12</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>24-9</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>19-12</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
@@ -595,9 +613,6 @@
     <t>Creighton</t>
   </si>
   <si>
-    <t>22-10</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -613,63 +628,63 @@
     <t>Memphis</t>
   </si>
   <si>
-    <t>20-9</t>
+    <t>21-9</t>
+  </si>
+  <si>
+    <t>Loyola-Chicago</t>
+  </si>
+  <si>
+    <t>Missouri Valley</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Atlantic 10</t>
+  </si>
+  <si>
+    <t>26-5</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>23-10</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>4-3</t>
   </si>
   <si>
-    <t>Loyola-Chicago</t>
-  </si>
-  <si>
-    <t>Missouri Valley</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Atlantic 10</t>
-  </si>
-  <si>
-    <t>26-5</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>11-0</t>
-  </si>
-  <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
-    <t>23-10</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>5-4</t>
   </si>
   <si>
@@ -748,15 +763,9 @@
     <t>SMU</t>
   </si>
   <si>
-    <t>10-1</t>
-  </si>
-  <si>
     <t>Virginia Tech</t>
   </si>
   <si>
-    <t>22-12</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
@@ -784,9 +793,6 @@
     <t>VCU</t>
   </si>
   <si>
-    <t>21-9</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -1075,220 +1081,322 @@
     <t>137</t>
   </si>
   <si>
-    <t>8-5</t>
-  </si>
-  <si>
     <t>Saint Peter's</t>
   </si>
   <si>
     <t>MAAC</t>
   </si>
   <si>
+    <t>18-11</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>Long Beach State</t>
+  </si>
+  <si>
+    <t>Big West</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>Jacksonville State</t>
+  </si>
+  <si>
+    <t>Atlantic Sun</t>
+  </si>
+  <si>
+    <t>19-10</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>15-5</t>
+  </si>
+  <si>
+    <t>Georgia State</t>
+  </si>
+  <si>
+    <t>Sun Belt</t>
+  </si>
+  <si>
+    <t>15-10</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Norfolk State</t>
+  </si>
+  <si>
+    <t>MEAC</t>
+  </si>
+  <si>
+    <t>21-6</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>19-3</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>18-3</t>
+  </si>
+  <si>
+    <t>Wright State</t>
+  </si>
+  <si>
+    <t>Horizon League</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>15-7</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>SWAC</t>
+  </si>
+  <si>
+    <t>18-12</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>17-5</t>
+  </si>
+  <si>
+    <t>Southeastern Louisiana</t>
+  </si>
+  <si>
+    <t>Southland</t>
+  </si>
+  <si>
+    <t>15-13</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>12-6</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>16-2</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>14-1</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
     <t>17-11</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>11-4</t>
-  </si>
-  <si>
-    <t>Long Beach State</t>
-  </si>
-  <si>
-    <t>Big West</t>
-  </si>
-  <si>
-    <t>18-11</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>Jacksonville State</t>
-  </si>
-  <si>
-    <t>Atlantic Sun</t>
-  </si>
-  <si>
-    <t>19-10</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>15-5</t>
-  </si>
-  <si>
-    <t>Georgia State</t>
-  </si>
-  <si>
-    <t>Sun Belt</t>
-  </si>
-  <si>
-    <t>15-10</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>Norfolk State</t>
-  </si>
-  <si>
-    <t>MEAC</t>
-  </si>
-  <si>
-    <t>21-6</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>19-3</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>18-3</t>
-  </si>
-  <si>
-    <t>Wright State</t>
-  </si>
-  <si>
-    <t>Horizon League</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>15-7</t>
-  </si>
-  <si>
-    <t>Alcorn State</t>
-  </si>
-  <si>
-    <t>SWAC</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>281</t>
+    <t>158</t>
+  </si>
+  <si>
+    <t>151</t>
   </si>
   <si>
     <t>0-4</t>
   </si>
   <si>
-    <t>16-4</t>
-  </si>
-  <si>
-    <t>Southeastern Louisiana</t>
-  </si>
-  <si>
-    <t>Southland</t>
-  </si>
-  <si>
-    <t>15-13</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>12-6</t>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Corpus Christi</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>17-6</t>
+  </si>
+  <si>
+    <t>Abilene Christian</t>
+  </si>
+  <si>
+    <t>19-9</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Cal State Fullerton</t>
+  </si>
+  <si>
+    <t>18-10</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>174</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1866,13 +1974,13 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1887,30 +1995,30 @@
         <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
@@ -1919,77 +2027,77 @@
         <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -1998,16 +2106,16 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>67</v>
@@ -2019,7 +2127,7 @@
         <v>43</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2030,31 +2138,31 @@
         <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>30</v>
@@ -2065,16 +2173,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
@@ -2092,13 +2200,13 @@
         <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>37</v>
@@ -2106,34 +2214,34 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>30</v>
@@ -2147,163 +2255,163 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>30</v>
@@ -2311,37 +2419,37 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>37</v>
@@ -2352,22 +2460,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>26</v>
@@ -2379,51 +2487,51 @@
         <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>44</v>
@@ -2434,34 +2542,34 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>37</v>
@@ -2475,37 +2583,37 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>30</v>
@@ -2516,81 +2624,81 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>43</v>
@@ -2598,40 +2706,40 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>21</v>
@@ -2639,31 +2747,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2672,48 +2780,48 @@
         <v>36</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>37</v>
@@ -2721,40 +2829,40 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>44</v>
@@ -2762,40 +2870,40 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>44</v>
@@ -2803,122 +2911,122 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>44</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>44</v>
@@ -2926,34 +3034,34 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>43</v>
@@ -2967,40 +3075,40 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>37</v>
@@ -3008,34 +3116,34 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>44</v>
@@ -3044,45 +3152,45 @@
         <v>22</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>43</v>
@@ -3090,81 +3198,81 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>43</v>
@@ -3172,81 +3280,81 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>43</v>
@@ -3254,40 +3362,40 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>29</v>
@@ -3295,81 +3403,81 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>43</v>
@@ -3377,40 +3485,40 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>44</v>
@@ -3418,81 +3526,81 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>30</v>
@@ -3500,40 +3608,40 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>37</v>
@@ -3541,81 +3649,81 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>43</v>
@@ -3623,81 +3731,81 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>30</v>
@@ -3705,40 +3813,40 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>37</v>
@@ -3746,40 +3854,40 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>29</v>
@@ -3787,327 +3895,327 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>43</v>
@@ -4115,163 +4223,163 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>44</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>19</v>
@@ -4279,163 +4387,163 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>22</v>
@@ -4443,218 +4551,218 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>365</v>
@@ -4663,7 +4771,7 @@
         <v>366</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>367</v>
@@ -4672,16 +4780,16 @@
         <v>365</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>368</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>369</v>
@@ -4698,7 +4806,7 @@
         <v>372</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>373</v>
@@ -4707,22 +4815,22 @@
         <v>374</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>375</v>
@@ -4745,10 +4853,10 @@
         <v>380</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>381</v>
@@ -4757,16 +4865,16 @@
         <v>382</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4798,13 +4906,13 @@
         <v>389</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>390</v>
@@ -4818,7 +4926,7 @@
         <v>392</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>389</v>
@@ -4839,13 +4947,13 @@
         <v>396</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>397</v>
@@ -4859,7 +4967,7 @@
         <v>399</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>367</v>
@@ -4880,13 +4988,13 @@
         <v>403</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>404</v>
@@ -4900,34 +5008,34 @@
         <v>406</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>270</v>
+        <v>407</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>368</v>
+        <v>299</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>414</v>
@@ -4962,16 +5070,303 @@
         <v>423</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/bracketology.xlsx
+++ b/bracketology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NCAATournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14EE114-8B92-4164-B1B0-CD46D3E5F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC1EAD-7CAA-4BCC-987D-8B2681D91F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="417">
   <si>
     <t>Team</t>
   </si>
@@ -94,1090 +94,1183 @@
     <t>Big 12</t>
   </si>
   <si>
+    <t>26-6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16-6</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>American Athletic</t>
+  </si>
+  <si>
+    <t>29-2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>8-0</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>9-0</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Big Ten</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Pac-12</t>
+  </si>
+  <si>
+    <t>28-4</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>24-8</t>
+  </si>
+  <si>
+    <t>12-8</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>22-10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11-10</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
     <t>25-6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>15-6</t>
-  </si>
-  <si>
-    <t>5-0</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Big East</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>23-8</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>West Coast</t>
+  </si>
+  <si>
+    <t>27-5</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>23-9</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>25-7</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>21-10</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>24-6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Saint Mary's College</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Mountain West</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>13-0</t>
   </si>
   <si>
     <t>2-0</t>
   </si>
   <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>American Athletic</t>
-  </si>
-  <si>
-    <t>29-2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>8-0</t>
-  </si>
-  <si>
-    <t>6-1</t>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>19-12</t>
+  </si>
+  <si>
+    <t>10-10</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>TCU</t>
+  </si>
+  <si>
+    <t>20-11</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3-6</t>
   </si>
   <si>
     <t>10-0</t>
   </si>
   <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>Big Ten</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Pac-12</t>
-  </si>
-  <si>
-    <t>27-4</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>23-8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>11-8</t>
-  </si>
-  <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>Baylor</t>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>19-11</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>19-13</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>20-12</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>FAU</t>
+  </si>
+  <si>
+    <t>Conference USA</t>
+  </si>
+  <si>
+    <t>27-3</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>12-0</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>19-14</t>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>Auburn</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>22-8</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>21-11</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>USC</t>
   </si>
   <si>
     <t>22-9</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>11-9</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>Big East</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>Kansas State</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>9-7</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
-    <t>West Coast</t>
-  </si>
-  <si>
-    <t>25-5</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>22-11</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>Utah State</t>
+  </si>
+  <si>
+    <t>23-7</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>17-14</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>18-15</t>
+  </si>
+  <si>
+    <t>6-12</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>17-15</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>20-13</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Colonial Athletic</t>
+  </si>
+  <si>
+    <t>30-3</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>16-0</t>
+  </si>
+  <si>
+    <t>Oral Roberts</t>
+  </si>
+  <si>
+    <t>The Summit League</t>
+  </si>
+  <si>
+    <t>26-4</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>19-0</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Missouri Valley</t>
+  </si>
+  <si>
+    <t>26-7</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>Atlantic 10</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>Mid-American</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>15-2</t>
+  </si>
+  <si>
+    <t>Utah Valley</t>
+  </si>
+  <si>
+    <t>Western Athletic</t>
+  </si>
+  <si>
+    <t>21-7</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>MAAC</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>18-2</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Ivy League</t>
+  </si>
+  <si>
+    <t>18-7</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Sun Belt</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>Big West</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Southern</t>
   </si>
   <si>
     <t>24-7</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>21-10</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>23-6</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>9-0</t>
-  </si>
-  <si>
-    <t>Miami (FL)</t>
-  </si>
-  <si>
-    <t>24-6</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>Saint Mary's College</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t>San Diego State</t>
-  </si>
-  <si>
-    <t>Mountain West</t>
-  </si>
-  <si>
-    <t>12-0</t>
-  </si>
-  <si>
-    <t>TCU</t>
-  </si>
-  <si>
-    <t>20-11</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>7-10</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>18-12</t>
-  </si>
-  <si>
-    <t>9-10</t>
-  </si>
-  <si>
-    <t>Creighton</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>Michigan State</t>
-  </si>
-  <si>
-    <t>19-11</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>19-12</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>10-1</t>
-  </si>
-  <si>
-    <t>FAU</t>
-  </si>
-  <si>
-    <t>Conference USA</t>
-  </si>
-  <si>
-    <t>26-3</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>13-0</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>18-13</t>
-  </si>
-  <si>
-    <t>6-12</t>
-  </si>
-  <si>
-    <t>Auburn</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>Boise State</t>
-  </si>
-  <si>
-    <t>22-8</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>Providence</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>North Carolina State</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>Utah State</t>
-  </si>
-  <si>
-    <t>23-7</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>21-9</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>Mississippi State</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>17-13</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>Arizona State</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Oklahoma State</t>
-  </si>
-  <si>
-    <t>17-14</t>
-  </si>
-  <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
-    <t>Mid-American</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>15-2</t>
-  </si>
-  <si>
-    <t>Utah Valley</t>
-  </si>
-  <si>
-    <t>Western Athletic</t>
-  </si>
-  <si>
-    <t>21-7</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>Kennesaw State</t>
+  </si>
+  <si>
+    <t>ASUN</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>9-1</t>
-  </si>
-  <si>
-    <t>Iona</t>
-  </si>
-  <si>
-    <t>MAAC</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>17-2</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Ivy League</t>
-  </si>
-  <si>
-    <t>18-7</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
+    <t>136</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>13-2</t>
+  </si>
+  <si>
+    <t>Colgate</t>
   </si>
   <si>
     <t>Patriot League</t>
   </si>
   <si>
-    <t>11-22</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>309</t>
+    <t>25-8</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>22-2</t>
+  </si>
+  <si>
+    <t>Montana State</t>
+  </si>
+  <si>
+    <t>Big Sky</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>15-1</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>America East</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>16-1</t>
+  </si>
+  <si>
+    <t>UNC Asheville</t>
+  </si>
+  <si>
+    <t>Big South</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>20-3</t>
+  </si>
+  <si>
+    <t>Northern Kentucky</t>
+  </si>
+  <si>
+    <t>Horizon League</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>Fairleigh Dickinson</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>16-12</t>
+  </si>
+  <si>
+    <t>Southeast Missouri</t>
+  </si>
+  <si>
+    <t>Ohio Valley</t>
+  </si>
+  <si>
+    <t>17-16</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>257</t>
   </si>
   <si>
     <t>255</t>
   </si>
   <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10-11</t>
-  </si>
-  <si>
-    <t>UC Irvine</t>
-  </si>
-  <si>
-    <t>Big West</t>
-  </si>
-  <si>
-    <t>20-10</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>Furman</t>
-  </si>
-  <si>
-    <t>Southern</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>14-2</t>
-  </si>
-  <si>
-    <t>Kennesaw State</t>
-  </si>
-  <si>
-    <t>ASUN</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>13-2</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>24-8</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>21-2</t>
-  </si>
-  <si>
-    <t>Montana State</t>
-  </si>
-  <si>
-    <t>Big Sky</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>13-1</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>America East</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>16-1</t>
-  </si>
-  <si>
-    <t>Youngstown State</t>
-  </si>
-  <si>
-    <t>Horizon League</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>156</t>
+    <t>15-9</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M-Corpus Christi</t>
+  </si>
+  <si>
+    <t>Southland</t>
+  </si>
+  <si>
+    <t>19-10</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>18-6</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>MEAC</t>
+  </si>
+  <si>
+    <t>17-12</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Grambling State</t>
+  </si>
+  <si>
+    <t>SWAC</t>
+  </si>
+  <si>
+    <t>21-8</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>188</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>19-2</t>
-  </si>
-  <si>
-    <t>UNC Asheville</t>
-  </si>
-  <si>
-    <t>Big South</t>
-  </si>
-  <si>
-    <t>25-7</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>20-3</t>
-  </si>
-  <si>
-    <t>Fairleigh Dickinson</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>16-11</t>
-  </si>
-  <si>
-    <t>Southeast Missouri</t>
-  </si>
-  <si>
-    <t>Ohio Valley</t>
-  </si>
-  <si>
-    <t>17-16</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>15-9</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M-Corpus Christi</t>
-  </si>
-  <si>
-    <t>Southland</t>
-  </si>
-  <si>
-    <t>17-10</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>16-6</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>MEAC</t>
-  </si>
-  <si>
-    <t>16-12</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>13-3</t>
-  </si>
-  <si>
-    <t>Grambling State</t>
-  </si>
-  <si>
-    <t>SWAC</t>
-  </si>
-  <si>
-    <t>20-8</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>194</t>
   </si>
   <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>18-4</t>
+    <t>212</t>
+  </si>
+  <si>
+    <t>19-4</t>
   </si>
 </sst>
 </file>
@@ -1580,23 +1673,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1704,19 +1790,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>21</v>
@@ -1724,19 +1810,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -1751,80 +1837,80 @@
         <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -1833,16 +1919,16 @@
         <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1856,31 +1942,31 @@
         <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>20</v>
@@ -1888,125 +1974,125 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2017,25 +2103,25 @@
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>77</v>
@@ -2061,51 +2147,51 @@
         <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>76</v>
@@ -2114,19 +2200,19 @@
         <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>20</v>
@@ -2134,166 +2220,166 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="K15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2301,19 +2387,19 @@
         <v>109</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>111</v>
@@ -2322,306 +2408,306 @@
         <v>112</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="J20" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>78</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2629,201 +2715,201 @@
         <v>142</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>35</v>
@@ -2831,81 +2917,81 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L32" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>20</v>
@@ -2913,163 +2999,163 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>21</v>
@@ -3077,286 +3163,286 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>20</v>
@@ -3364,327 +3450,327 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>78</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="L48" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>78</v>
@@ -3692,599 +3778,599 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>256</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="L56" s="2" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="L57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="K61" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="L63" s="2" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>85</v>
+        <v>323</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>337</v>
@@ -4293,36 +4379,36 @@
         <v>338</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>228</v>
+        <v>85</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>345</v>
@@ -4334,13 +4420,13 @@
         <v>347</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>348</v>
@@ -4354,160 +4440,324 @@
         <v>350</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="K68" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="J69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="J70" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M71" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>385</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
